--- a/trunk/Plan/Plan.xlsx
+++ b/trunk/Plan/Plan.xlsx
@@ -16,6 +16,7 @@
     <sheet name="References" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Phase!$F$7:$H$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Phase!$A$1:$X$93</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -679,6 +680,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -694,9 +730,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -707,38 +740,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1037,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1065,101 +1066,101 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="29" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="29" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="30"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="24" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="24" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="31"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="25" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="25" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="25"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="32"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="28"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:24">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1174,19 +1175,19 @@
       <c r="E6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="21" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
       <c r="O6" s="19" t="s">
         <v>16</v>
       </c>
@@ -1200,14 +1201,14 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
-      <c r="X6" s="37"/>
+      <c r="X6" s="20"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
@@ -1336,11 +1337,11 @@
         <v>0</v>
       </c>
       <c r="W8" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X8" s="4">
         <f>IF(F8="x", W8*References!$C$3, 0) + IF(G8="x", W8*References!$C$4, 0) + IF(H8="x", W8*References!$C$4, 0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1392,7 +1393,7 @@
         <v>41156</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" ref="Q9:Q36" si="2">P9-O9</f>
+        <f t="shared" ref="Q9:Q35" si="2">P9-O9</f>
         <v>0</v>
       </c>
       <c r="R9" s="4">
@@ -1567,11 +1568,11 @@
         <v>0</v>
       </c>
       <c r="W11" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X11" s="4">
         <f>IF(F11="x", W11*References!$C$3, 0) + IF(G11="x", W11*References!$C$4, 0) + IF(H11="x", W11*References!$C$4, 0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1875,11 +1876,11 @@
         <v>0</v>
       </c>
       <c r="W15" s="4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="X15" s="4">
         <f>IF(F15="x", W15*References!$C$3, 0) + IF(G15="x", W15*References!$C$4, 0) + IF(H15="x", W15*References!$C$4, 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1922,11 +1923,11 @@
         <v>0</v>
       </c>
       <c r="M16" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N16" s="4">
         <f>IF(F16="x", M16*References!$C$3, 0) + IF(G16="x", M16*References!$C$4, 0) + IF(H16="x", M16*References!$C$4, 0)</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="O16" s="9">
         <v>41159</v>
@@ -1939,11 +1940,11 @@
         <v>0</v>
       </c>
       <c r="R16" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S16" s="4">
         <f>IF(F16="x", R16*References!$C$3, 0) + IF(G16="x", R16*References!$C$4, 0) + IF(H16="x", R16*References!$C$4, 0)</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="T16" s="9">
         <v>41159</v>
@@ -1956,11 +1957,11 @@
         <v>0</v>
       </c>
       <c r="W16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X16" s="4">
         <f>IF(F16="x", W16*References!$C$3, 0) + IF(G16="x", W16*References!$C$4, 0) + IF(H16="x", W16*References!$C$4, 0)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -2003,11 +2004,11 @@
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N17" s="4">
         <f>IF(F17="x", M17*References!$C$3, 0) + IF(G17="x", M17*References!$C$4, 0) + IF(H17="x", M17*References!$C$4, 0)</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="O17" s="9">
         <v>41160</v>
@@ -2020,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="R17" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S17" s="4">
         <f>IF(F17="x", R17*References!$C$3, 0) + IF(G17="x", R17*References!$C$4, 0) + IF(H17="x", R17*References!$C$4, 0)</f>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="T17" s="9">
         <v>41160</v>
@@ -2037,11 +2038,11 @@
         <v>0</v>
       </c>
       <c r="W17" s="4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="X17" s="4">
         <f>IF(F17="x", W17*References!$C$3, 0) + IF(G17="x", W17*References!$C$4, 0) + IF(H17="x", W17*References!$C$4, 0)</f>
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -2084,11 +2085,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N18" s="4">
         <f>IF(F18="x", M18*References!$C$3, 0) + IF(G18="x", M18*References!$C$4, 0) + IF(H18="x", M18*References!$C$4, 0)</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="O18" s="9">
         <v>41161</v>
@@ -2101,11 +2102,11 @@
         <v>0</v>
       </c>
       <c r="R18" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S18" s="4">
         <f>IF(F18="x", R18*References!$C$3, 0) + IF(G18="x", R18*References!$C$4, 0) + IF(H18="x", R18*References!$C$4, 0)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="T18" s="9">
         <v>41161</v>
@@ -2118,11 +2119,11 @@
         <v>0</v>
       </c>
       <c r="W18" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X18" s="4">
         <f>IF(F18="x", W18*References!$C$3, 0) + IF(G18="x", W18*References!$C$4, 0) + IF(H18="x", W18*References!$C$4, 0)</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -2165,11 +2166,11 @@
         <v>1</v>
       </c>
       <c r="M19" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N19" s="4">
         <f>IF(F19="x", M19*References!$C$3, 0) + IF(G19="x", M19*References!$C$4, 0) + IF(H19="x", M19*References!$C$4, 0)</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="O19" s="9">
         <v>41162</v>
@@ -2182,11 +2183,11 @@
         <v>1</v>
       </c>
       <c r="R19" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S19" s="4">
         <f>IF(F19="x", R19*References!$C$3, 0) + IF(G19="x", R19*References!$C$4, 0) + IF(H19="x", R19*References!$C$4, 0)</f>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="T19" s="9">
         <v>41162</v>
@@ -2199,11 +2200,11 @@
         <v>1</v>
       </c>
       <c r="W19" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X19" s="4">
         <f>IF(F19="x", W19*References!$C$3, 0) + IF(G19="x", W19*References!$C$4, 0) + IF(H19="x", W19*References!$C$4, 0)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -2246,11 +2247,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N20" s="4">
         <f>IF(F20="x", M20*References!$C$3, 0) + IF(G20="x", M20*References!$C$4, 0) + IF(H20="x", M20*References!$C$4, 0)</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="O20" s="9">
         <v>41164</v>
@@ -2263,11 +2264,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="S20" s="4">
         <f>IF(F20="x", R20*References!$C$3, 0) + IF(G20="x", R20*References!$C$4, 0) + IF(H20="x", R20*References!$C$4, 0)</f>
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="T20" s="9">
         <v>41164</v>
@@ -2280,11 +2281,11 @@
         <v>0</v>
       </c>
       <c r="W20" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X20" s="4">
         <f>IF(F20="x", W20*References!$C$3, 0) + IF(G20="x", W20*References!$C$4, 0) + IF(H20="x", W20*References!$C$4, 0)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2327,11 +2328,11 @@
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N21" s="4">
         <f>IF(F21="x", M21*References!$C$3, 0) + IF(G21="x", M21*References!$C$4, 0) + IF(H21="x", M21*References!$C$4, 0)</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="O21" s="9">
         <v>41165</v>
@@ -2344,11 +2345,11 @@
         <v>0</v>
       </c>
       <c r="R21" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S21" s="4">
         <f>IF(F21="x", R21*References!$C$3, 0) + IF(G21="x", R21*References!$C$4, 0) + IF(H21="x", R21*References!$C$4, 0)</f>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="T21" s="9">
         <v>41165</v>
@@ -2361,11 +2362,11 @@
         <v>0</v>
       </c>
       <c r="W21" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X21" s="4">
         <f>IF(F21="x", W21*References!$C$3, 0) + IF(G21="x", W21*References!$C$4, 0) + IF(H21="x", W21*References!$C$4, 0)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2408,11 +2409,11 @@
         <v>1</v>
       </c>
       <c r="M22" s="4">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N22" s="4">
         <f>IF(F22="x", M22*References!$C$3, 0) + IF(G22="x", M22*References!$C$4, 0) + IF(H22="x", M22*References!$C$4, 0)</f>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="O22" s="9">
         <v>41169</v>
@@ -2425,11 +2426,11 @@
         <v>1</v>
       </c>
       <c r="R22" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="S22" s="4">
         <f>IF(F22="x", R22*References!$C$3, 0) + IF(G22="x", R22*References!$C$4, 0) + IF(H22="x", R22*References!$C$4, 0)</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="T22" s="9">
         <v>41169</v>
@@ -2442,11 +2443,11 @@
         <v>1</v>
       </c>
       <c r="W22" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X22" s="4">
         <f>IF(F22="x", W22*References!$C$3, 0) + IF(G22="x", W22*References!$C$4, 0) + IF(H22="x", W22*References!$C$4, 0)</f>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2489,11 +2490,11 @@
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N23" s="4">
         <f>IF(F23="x", M23*References!$C$3, 0) + IF(G23="x", M23*References!$C$4, 0) + IF(H23="x", M23*References!$C$4, 0)</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="O23" s="9">
         <v>41166</v>
@@ -2506,11 +2507,11 @@
         <v>0</v>
       </c>
       <c r="R23" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S23" s="4">
         <f>IF(F23="x", R23*References!$C$3, 0) + IF(G23="x", R23*References!$C$4, 0) + IF(H23="x", R23*References!$C$4, 0)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="T23" s="9">
         <v>41166</v>
@@ -2523,11 +2524,11 @@
         <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X23" s="4">
         <f>IF(F23="x", W23*References!$C$3, 0) + IF(G23="x", W23*References!$C$4, 0) + IF(H23="x", W23*References!$C$4, 0)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2600,11 +2601,11 @@
         <v>1</v>
       </c>
       <c r="W24" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X24" s="4">
         <f>IF(F24="x", W24*References!$C$3, 0) + IF(G24="x", W24*References!$C$4, 0) + IF(H24="x", W24*References!$C$4, 0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2801,11 +2802,11 @@
         <v>2</v>
       </c>
       <c r="M27" s="4">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N27" s="4">
         <f>IF(F27="x", M27*References!$C$3, 0) + IF(G27="x", M27*References!$C$4, 0) + IF(H27="x", M27*References!$C$4, 0)</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="O27" s="9">
         <v>41178</v>
@@ -2818,11 +2819,11 @@
         <v>2</v>
       </c>
       <c r="R27" s="4">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="S27" s="4">
         <f>IF(F27="x", R27*References!$C$3, 0) + IF(G27="x", R27*References!$C$4, 0) + IF(H27="x", R27*References!$C$4, 0)</f>
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="T27" s="9">
         <v>41178</v>
@@ -2835,11 +2836,11 @@
         <v>4</v>
       </c>
       <c r="W27" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X27" s="4">
         <f>IF(F27="x", W27*References!$C$3, 0) + IF(G27="x", W27*References!$C$4, 0) + IF(H27="x", W27*References!$C$4, 0)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2882,11 +2883,11 @@
         <v>2</v>
       </c>
       <c r="M28" s="4">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N28" s="4">
         <f>IF(F28="x", M28*References!$C$3, 0) + IF(G28="x", M28*References!$C$4, 0) + IF(H28="x", M28*References!$C$4, 0)</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="O28" s="9">
         <v>41181</v>
@@ -2899,11 +2900,11 @@
         <v>2</v>
       </c>
       <c r="R28" s="4">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="S28" s="4">
         <f>IF(F28="x", R28*References!$C$3, 0) + IF(G28="x", R28*References!$C$4, 0) + IF(H28="x", R28*References!$C$4, 0)</f>
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="T28" s="9">
         <v>41181</v>
@@ -2916,11 +2917,11 @@
         <v>2</v>
       </c>
       <c r="W28" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X28" s="4">
         <f>IF(F28="x", W28*References!$C$3, 0) + IF(G28="x", W28*References!$C$4, 0) + IF(H28="x", W28*References!$C$4, 0)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2961,11 +2962,11 @@
         <v>2</v>
       </c>
       <c r="M29" s="4">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N29" s="4">
         <f>IF(F29="x", M29*References!$C$3, 0) + IF(G29="x", M29*References!$C$4, 0) + IF(H29="x", M29*References!$C$4, 0)</f>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="O29" s="9">
         <v>41181</v>
@@ -2978,11 +2979,11 @@
         <v>1</v>
       </c>
       <c r="R29" s="4">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="S29" s="4">
         <f>IF(F29="x", R29*References!$C$3, 0) + IF(G29="x", R29*References!$C$4, 0) + IF(H29="x", R29*References!$C$4, 0)</f>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="T29" s="9">
         <v>41181</v>
@@ -3566,10 +3567,10 @@
         <v>45</v>
       </c>
       <c r="J37" s="9">
-        <v>41184</v>
+        <v>41215</v>
       </c>
       <c r="K37" s="9">
-        <v>41184</v>
+        <v>41215</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="4"/>
@@ -3583,13 +3584,13 @@
         <v>8</v>
       </c>
       <c r="O37" s="9">
-        <v>41184</v>
+        <v>41215</v>
       </c>
       <c r="P37" s="9">
-        <v>41184</v>
+        <v>41215</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" ref="Q37:Q41" si="5">P37-O37</f>
+        <f t="shared" ref="Q37:Q42" si="5">P37-O37</f>
         <v>0</v>
       </c>
       <c r="R37" s="4">
@@ -3600,21 +3601,21 @@
         <v>8</v>
       </c>
       <c r="T37" s="9">
-        <v>41184</v>
+        <v>41215</v>
       </c>
       <c r="U37" s="9">
-        <v>41184</v>
+        <v>41215</v>
       </c>
       <c r="V37" s="4">
-        <f t="shared" ref="V37:V41" si="6">U37-T37</f>
+        <f t="shared" ref="V37:V43" si="6">U37-T37</f>
         <v>0</v>
       </c>
       <c r="W37" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X37" s="4">
         <f>IF(F37="x", W37*References!$C$3, 0) + IF(G37="x", W37*References!$C$4, 0) + IF(H37="x", W37*References!$C$4, 0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3643,10 +3644,10 @@
         <v>101</v>
       </c>
       <c r="J38" s="9">
-        <v>41187</v>
+        <v>41218</v>
       </c>
       <c r="K38" s="9">
-        <v>41187</v>
+        <v>41218</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="4"/>
@@ -3660,10 +3661,10 @@
         <v>6</v>
       </c>
       <c r="O38" s="9">
-        <v>41187</v>
+        <v>41216</v>
       </c>
       <c r="P38" s="9">
-        <v>41187</v>
+        <v>41216</v>
       </c>
       <c r="Q38" s="4">
         <f t="shared" si="5"/>
@@ -3677,10 +3678,10 @@
         <v>6</v>
       </c>
       <c r="T38" s="9">
-        <v>41187</v>
+        <v>41216</v>
       </c>
       <c r="U38" s="9">
-        <v>41187</v>
+        <v>41216</v>
       </c>
       <c r="V38" s="4">
         <f t="shared" si="6"/>
@@ -3720,10 +3721,10 @@
         <v>45</v>
       </c>
       <c r="J39" s="9">
-        <v>41185</v>
+        <v>41216</v>
       </c>
       <c r="K39" s="9">
-        <v>41185</v>
+        <v>41216</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="4"/>
@@ -3737,10 +3738,10 @@
         <v>8</v>
       </c>
       <c r="O39" s="9">
-        <v>41185</v>
+        <v>41217</v>
       </c>
       <c r="P39" s="9">
-        <v>41185</v>
+        <v>41217</v>
       </c>
       <c r="Q39" s="4">
         <f t="shared" si="5"/>
@@ -3754,21 +3755,21 @@
         <v>8</v>
       </c>
       <c r="T39" s="9">
-        <v>41185</v>
+        <v>41216</v>
       </c>
       <c r="U39" s="9">
-        <v>41185</v>
+        <v>41216</v>
       </c>
       <c r="V39" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W39" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X39" s="4">
         <f>IF(F39="x", W39*References!$C$3, 0) + IF(G39="x", W39*References!$C$4, 0) + IF(H39="x", W39*References!$C$4, 0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3797,10 +3798,10 @@
         <v>101</v>
       </c>
       <c r="J40" s="9">
-        <v>41187</v>
+        <v>41218</v>
       </c>
       <c r="K40" s="9">
-        <v>41187</v>
+        <v>41218</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="4"/>
@@ -3874,10 +3875,10 @@
         <v>45</v>
       </c>
       <c r="J41" s="9">
-        <v>41186</v>
+        <v>41217</v>
       </c>
       <c r="K41" s="9">
-        <v>41186</v>
+        <v>41217</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="4"/>
@@ -3891,10 +3892,10 @@
         <v>8</v>
       </c>
       <c r="O41" s="9">
-        <v>41186</v>
+        <v>41217</v>
       </c>
       <c r="P41" s="9">
-        <v>41186</v>
+        <v>41217</v>
       </c>
       <c r="Q41" s="4">
         <f t="shared" si="5"/>
@@ -3908,21 +3909,21 @@
         <v>8</v>
       </c>
       <c r="T41" s="9">
-        <v>41186</v>
+        <v>41217</v>
       </c>
       <c r="U41" s="9">
-        <v>41186</v>
+        <v>41217</v>
       </c>
       <c r="V41" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W41" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X41" s="4">
         <f>IF(F41="x", W41*References!$C$3, 0) + IF(G41="x", W41*References!$C$4, 0) + IF(H41="x", W41*References!$C$4, 0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3951,10 +3952,10 @@
         <v>101</v>
       </c>
       <c r="J42" s="9">
-        <v>41188</v>
+        <v>41219</v>
       </c>
       <c r="K42" s="9">
-        <v>41188</v>
+        <v>41219</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="4"/>
@@ -3967,11 +3968,23 @@
         <f>IF(F42="x", M42*References!$C$3, 0) + IF(G42="x", M42*References!$C$4, 0) + IF(H42="x", M42*References!$C$4, 0)</f>
         <v>6</v>
       </c>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
+      <c r="O42" s="9">
+        <v>41219</v>
+      </c>
+      <c r="P42" s="9">
+        <v>41219</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <v>4</v>
+      </c>
+      <c r="S42" s="4">
+        <f>IF(K42="x", R42*References!$C$3, 0) + IF(L42="x", R42*References!$C$4, 0) + IF(M42="x", R42*References!$C$4, 0)</f>
+        <v>0</v>
+      </c>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="4"/>
@@ -4004,10 +4017,10 @@
         <v>101</v>
       </c>
       <c r="J43" s="9">
-        <v>41187</v>
+        <v>41218</v>
       </c>
       <c r="K43" s="9">
-        <v>41187</v>
+        <v>41218</v>
       </c>
       <c r="L43" s="4">
         <f t="shared" si="4"/>
@@ -4020,16 +4033,40 @@
         <f>IF(F43="x", M43*References!$C$3, 0) + IF(G43="x", M43*References!$C$4, 0) + IF(H43="x", M43*References!$C$4, 0)</f>
         <v>8</v>
       </c>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
+      <c r="O43" s="9">
+        <v>41218</v>
+      </c>
+      <c r="P43" s="9">
+        <v>41218</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" ref="Q43" si="7">P43-O43</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="4">
+        <v>4</v>
+      </c>
+      <c r="S43" s="4">
+        <f>IF(F43="x", R43*References!$C$3, 0) + IF(G43="x", R43*References!$C$4, 0) + IF(H43="x", R43*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T43" s="9">
+        <v>41218</v>
+      </c>
+      <c r="U43" s="9">
+        <v>41218</v>
+      </c>
+      <c r="V43" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="4">
+        <v>1</v>
+      </c>
+      <c r="X43" s="4">
+        <f>IF(F43="x", W43*References!$C$3, 0) + IF(G43="x", W43*References!$C$4, 0) + IF(H43="x", W43*References!$C$4, 0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="3">
@@ -4057,10 +4094,10 @@
         <v>101</v>
       </c>
       <c r="J44" s="9">
-        <v>41188</v>
+        <v>41219</v>
       </c>
       <c r="K44" s="9">
-        <v>41188</v>
+        <v>41219</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="4"/>
@@ -4110,10 +4147,10 @@
         <v>101</v>
       </c>
       <c r="J45" s="9">
-        <v>41188</v>
+        <v>41219</v>
       </c>
       <c r="K45" s="9">
-        <v>41188</v>
+        <v>41219</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" si="4"/>
@@ -4163,10 +4200,10 @@
         <v>101</v>
       </c>
       <c r="J46" s="9">
-        <v>41189</v>
+        <v>41220</v>
       </c>
       <c r="K46" s="9">
-        <v>41189</v>
+        <v>41220</v>
       </c>
       <c r="L46" s="4">
         <f t="shared" si="4"/>
@@ -4216,10 +4253,10 @@
         <v>101</v>
       </c>
       <c r="J47" s="9">
-        <v>41189</v>
+        <v>41220</v>
       </c>
       <c r="K47" s="9">
-        <v>41189</v>
+        <v>41220</v>
       </c>
       <c r="L47" s="4">
         <f t="shared" si="4"/>
@@ -4269,10 +4306,10 @@
         <v>101</v>
       </c>
       <c r="J48" s="9">
-        <v>41190</v>
+        <v>41221</v>
       </c>
       <c r="K48" s="9">
-        <v>41190</v>
+        <v>41221</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" si="4"/>
@@ -4322,10 +4359,10 @@
         <v>101</v>
       </c>
       <c r="J49" s="9">
-        <v>41190</v>
+        <v>41221</v>
       </c>
       <c r="K49" s="9">
-        <v>41190</v>
+        <v>41221</v>
       </c>
       <c r="L49" s="4">
         <f t="shared" si="4"/>
@@ -4375,10 +4412,10 @@
         <v>101</v>
       </c>
       <c r="J50" s="9">
-        <v>41191</v>
+        <v>41222</v>
       </c>
       <c r="K50" s="9">
-        <v>41191</v>
+        <v>41222</v>
       </c>
       <c r="L50" s="4">
         <f t="shared" si="4"/>
@@ -4428,10 +4465,10 @@
         <v>101</v>
       </c>
       <c r="J51" s="9">
-        <v>41191</v>
+        <v>41222</v>
       </c>
       <c r="K51" s="9">
-        <v>41191</v>
+        <v>41222</v>
       </c>
       <c r="L51" s="4">
         <f t="shared" si="4"/>
@@ -4481,10 +4518,10 @@
         <v>101</v>
       </c>
       <c r="J52" s="9">
-        <v>41192</v>
+        <v>41223</v>
       </c>
       <c r="K52" s="9">
-        <v>41192</v>
+        <v>41223</v>
       </c>
       <c r="L52" s="4">
         <f t="shared" si="4"/>
@@ -4534,10 +4571,10 @@
         <v>101</v>
       </c>
       <c r="J53" s="9">
-        <v>41192</v>
+        <v>41223</v>
       </c>
       <c r="K53" s="9">
-        <v>41192</v>
+        <v>41223</v>
       </c>
       <c r="L53" s="4">
         <f t="shared" si="4"/>
@@ -4587,10 +4624,10 @@
         <v>101</v>
       </c>
       <c r="J54" s="9">
-        <v>41193</v>
+        <v>41224</v>
       </c>
       <c r="K54" s="9">
-        <v>41193</v>
+        <v>41224</v>
       </c>
       <c r="L54" s="4">
         <f t="shared" si="4"/>
@@ -4640,10 +4677,10 @@
         <v>101</v>
       </c>
       <c r="J55" s="9">
-        <v>41193</v>
+        <v>77748</v>
       </c>
       <c r="K55" s="9">
-        <v>41193</v>
+        <v>77748</v>
       </c>
       <c r="L55" s="4">
         <f t="shared" si="4"/>
@@ -4693,10 +4730,10 @@
         <v>101</v>
       </c>
       <c r="J56" s="9">
-        <v>41194</v>
+        <v>41225</v>
       </c>
       <c r="K56" s="9">
-        <v>41194</v>
+        <v>41225</v>
       </c>
       <c r="L56" s="4">
         <f t="shared" si="4"/>
@@ -4746,10 +4783,10 @@
         <v>101</v>
       </c>
       <c r="J57" s="9">
-        <v>41194</v>
+        <v>41225</v>
       </c>
       <c r="K57" s="9">
-        <v>41194</v>
+        <v>41225</v>
       </c>
       <c r="L57" s="4">
         <f t="shared" si="4"/>
@@ -4799,10 +4836,10 @@
         <v>101</v>
       </c>
       <c r="J58" s="9">
-        <v>41195</v>
+        <v>41226</v>
       </c>
       <c r="K58" s="9">
-        <v>41195</v>
+        <v>41226</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="4"/>
@@ -4852,10 +4889,10 @@
         <v>101</v>
       </c>
       <c r="J59" s="9">
-        <v>41195</v>
+        <v>41226</v>
       </c>
       <c r="K59" s="9">
-        <v>41195</v>
+        <v>41226</v>
       </c>
       <c r="L59" s="4">
         <f t="shared" si="4"/>
@@ -4905,10 +4942,10 @@
         <v>101</v>
       </c>
       <c r="J60" s="9">
-        <v>41196</v>
+        <v>41227</v>
       </c>
       <c r="K60" s="9">
-        <v>41196</v>
+        <v>41227</v>
       </c>
       <c r="L60" s="4">
         <f t="shared" si="4"/>
@@ -4958,10 +4995,10 @@
         <v>101</v>
       </c>
       <c r="J61" s="9">
-        <v>41196</v>
+        <v>41227</v>
       </c>
       <c r="K61" s="9">
-        <v>41196</v>
+        <v>41227</v>
       </c>
       <c r="L61" s="4">
         <f t="shared" si="4"/>
@@ -5011,10 +5048,10 @@
         <v>101</v>
       </c>
       <c r="J62" s="9">
-        <v>41196</v>
+        <v>41227</v>
       </c>
       <c r="K62" s="9">
-        <v>41196</v>
+        <v>41227</v>
       </c>
       <c r="L62" s="4">
         <f t="shared" si="4"/>
@@ -5064,10 +5101,10 @@
         <v>101</v>
       </c>
       <c r="J63" s="9">
-        <v>41196</v>
+        <v>41227</v>
       </c>
       <c r="K63" s="9">
-        <v>41196</v>
+        <v>41227</v>
       </c>
       <c r="L63" s="4">
         <f t="shared" si="4"/>
@@ -5117,10 +5154,10 @@
         <v>101</v>
       </c>
       <c r="J64" s="9">
-        <v>41197</v>
+        <v>41228</v>
       </c>
       <c r="K64" s="9">
-        <v>41197</v>
+        <v>41228</v>
       </c>
       <c r="L64" s="4">
         <f t="shared" si="4"/>
@@ -5170,10 +5207,10 @@
         <v>101</v>
       </c>
       <c r="J65" s="9">
-        <v>41197</v>
+        <v>41228</v>
       </c>
       <c r="K65" s="9">
-        <v>41197</v>
+        <v>41228</v>
       </c>
       <c r="L65" s="4">
         <f t="shared" si="4"/>
@@ -5223,10 +5260,10 @@
         <v>101</v>
       </c>
       <c r="J66" s="9">
-        <v>41197</v>
+        <v>41228</v>
       </c>
       <c r="K66" s="9">
-        <v>41197</v>
+        <v>41228</v>
       </c>
       <c r="L66" s="4">
         <f t="shared" si="4"/>
@@ -5276,10 +5313,10 @@
         <v>101</v>
       </c>
       <c r="J67" s="9">
-        <v>41197</v>
+        <v>41228</v>
       </c>
       <c r="K67" s="9">
-        <v>41197</v>
+        <v>41228</v>
       </c>
       <c r="L67" s="4">
         <f t="shared" si="4"/>
@@ -5329,10 +5366,10 @@
         <v>101</v>
       </c>
       <c r="J68" s="9">
-        <v>41198</v>
+        <v>41229</v>
       </c>
       <c r="K68" s="9">
-        <v>41198</v>
+        <v>41229</v>
       </c>
       <c r="L68" s="4">
         <f t="shared" si="4"/>
@@ -5382,10 +5419,10 @@
         <v>101</v>
       </c>
       <c r="J69" s="9">
-        <v>41198</v>
+        <v>41229</v>
       </c>
       <c r="K69" s="9">
-        <v>41198</v>
+        <v>41229</v>
       </c>
       <c r="L69" s="4">
         <f t="shared" si="4"/>
@@ -5435,10 +5472,10 @@
         <v>101</v>
       </c>
       <c r="J70" s="9">
-        <v>41198</v>
+        <v>41229</v>
       </c>
       <c r="K70" s="9">
-        <v>41198</v>
+        <v>41229</v>
       </c>
       <c r="L70" s="4">
         <f t="shared" si="4"/>
@@ -5488,10 +5525,10 @@
         <v>101</v>
       </c>
       <c r="J71" s="9">
-        <v>41198</v>
+        <v>41229</v>
       </c>
       <c r="K71" s="9">
-        <v>41198</v>
+        <v>41229</v>
       </c>
       <c r="L71" s="4">
         <f t="shared" si="4"/>
@@ -5541,10 +5578,10 @@
         <v>101</v>
       </c>
       <c r="J72" s="9">
-        <v>41199</v>
+        <v>41230</v>
       </c>
       <c r="K72" s="9">
-        <v>41199</v>
+        <v>41230</v>
       </c>
       <c r="L72" s="4">
         <f t="shared" si="4"/>
@@ -5594,10 +5631,10 @@
         <v>101</v>
       </c>
       <c r="J73" s="9">
-        <v>41199</v>
+        <v>41230</v>
       </c>
       <c r="K73" s="9">
-        <v>41199</v>
+        <v>41230</v>
       </c>
       <c r="L73" s="4">
         <f t="shared" si="4"/>
@@ -5647,10 +5684,10 @@
         <v>101</v>
       </c>
       <c r="J74" s="9">
-        <v>41200</v>
+        <v>41231</v>
       </c>
       <c r="K74" s="9">
-        <v>41200</v>
+        <v>41231</v>
       </c>
       <c r="L74" s="4">
         <f t="shared" si="4"/>
@@ -5700,10 +5737,10 @@
         <v>101</v>
       </c>
       <c r="J75" s="9">
-        <v>41200</v>
+        <v>41231</v>
       </c>
       <c r="K75" s="9">
-        <v>41200</v>
+        <v>41231</v>
       </c>
       <c r="L75" s="4">
         <f t="shared" si="4"/>
@@ -5753,10 +5790,10 @@
         <v>101</v>
       </c>
       <c r="J76" s="9">
-        <v>41201</v>
+        <v>41232</v>
       </c>
       <c r="K76" s="9">
-        <v>41201</v>
+        <v>41232</v>
       </c>
       <c r="L76" s="4">
         <f t="shared" si="4"/>
@@ -6265,6 +6302,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="M2:N2"/>
@@ -6281,14 +6326,6 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/Plan/Plan.xlsx
+++ b/trunk/Plan/Plan.xlsx
@@ -1036,10 +1036,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1267,7 +1268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" hidden="1">
       <c r="A8" s="3">
         <f>ROW()-7</f>
         <v>1</v>
@@ -1344,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" hidden="1">
       <c r="A9" s="3">
         <f t="shared" ref="A9:A89" si="0">ROW()-7</f>
         <v>2</v>
@@ -1498,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" hidden="1">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1575,7 +1576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" hidden="1">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1729,7 +1730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" hidden="1">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1806,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" hidden="1">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1883,7 +1884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" hidden="1">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1957,14 +1958,14 @@
         <v>0</v>
       </c>
       <c r="W16" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X16" s="4">
         <f>IF(F16="x", W16*References!$C$3, 0) + IF(G16="x", W16*References!$C$4, 0) + IF(H16="x", W16*References!$C$4, 0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" hidden="1">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2038,14 +2039,14 @@
         <v>0</v>
       </c>
       <c r="W17" s="4">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="X17" s="4">
         <f>IF(F17="x", W17*References!$C$3, 0) + IF(G17="x", W17*References!$C$4, 0) + IF(H17="x", W17*References!$C$4, 0)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" hidden="1">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2119,14 +2120,14 @@
         <v>0</v>
       </c>
       <c r="W18" s="4">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="X18" s="4">
         <f>IF(F18="x", W18*References!$C$3, 0) + IF(G18="x", W18*References!$C$4, 0) + IF(H18="x", W18*References!$C$4, 0)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" hidden="1">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2200,14 +2201,14 @@
         <v>1</v>
       </c>
       <c r="W19" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="X19" s="4">
         <f>IF(F19="x", W19*References!$C$3, 0) + IF(G19="x", W19*References!$C$4, 0) + IF(H19="x", W19*References!$C$4, 0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" hidden="1">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2281,14 +2282,14 @@
         <v>0</v>
       </c>
       <c r="W20" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X20" s="4">
         <f>IF(F20="x", W20*References!$C$3, 0) + IF(G20="x", W20*References!$C$4, 0) + IF(H20="x", W20*References!$C$4, 0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" hidden="1">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2362,14 +2363,14 @@
         <v>0</v>
       </c>
       <c r="W21" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X21" s="4">
         <f>IF(F21="x", W21*References!$C$3, 0) + IF(G21="x", W21*References!$C$4, 0) + IF(H21="x", W21*References!$C$4, 0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" hidden="1">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2443,14 +2444,14 @@
         <v>1</v>
       </c>
       <c r="W22" s="4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="X22" s="4">
         <f>IF(F22="x", W22*References!$C$3, 0) + IF(G22="x", W22*References!$C$4, 0) + IF(H22="x", W22*References!$C$4, 0)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" hidden="1">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2524,14 +2525,14 @@
         <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X23" s="4">
         <f>IF(F23="x", W23*References!$C$3, 0) + IF(G23="x", W23*References!$C$4, 0) + IF(H23="x", W23*References!$C$4, 0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" hidden="1">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2608,7 +2609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" hidden="1">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2685,7 +2686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" hidden="1">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2762,7 +2763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" hidden="1">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2836,14 +2837,14 @@
         <v>4</v>
       </c>
       <c r="W27" s="4">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="X27" s="4">
         <f>IF(F27="x", W27*References!$C$3, 0) + IF(G27="x", W27*References!$C$4, 0) + IF(H27="x", W27*References!$C$4, 0)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" hidden="1">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2917,14 +2918,14 @@
         <v>2</v>
       </c>
       <c r="W28" s="4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="X28" s="4">
         <f>IF(F28="x", W28*References!$C$3, 0) + IF(G28="x", W28*References!$C$4, 0) + IF(H28="x", W28*References!$C$4, 0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" hidden="1">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3003,7 +3004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" hidden="1">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3080,7 +3081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" hidden="1">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3157,7 +3158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" hidden="1">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3234,7 +3235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" hidden="1">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3311,7 +3312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" hidden="1">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3458,11 +3459,11 @@
         <v>4</v>
       </c>
       <c r="W35" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="X35" s="4">
         <f>IF(F35="x", W35*References!$C$3, 0) + IF(G35="x", W35*References!$C$4, 0) + IF(H35="x", W35*References!$C$4, 0)</f>
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3534,14 +3535,14 @@
         <v>15</v>
       </c>
       <c r="W36" s="4">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X36" s="4">
         <f>IF(F36="x", W36*References!$C$3, 0) + IF(G36="x", W36*References!$C$4, 0) + IF(H36="x", W36*References!$C$4, 0)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" hidden="1">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3618,7 +3619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" hidden="1">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3695,7 +3696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" hidden="1">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3849,7 +3850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" hidden="1">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3926,7 +3927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" hidden="1">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3991,7 +3992,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" hidden="1">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4121,7 +4122,7 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" hidden="1">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4174,7 +4175,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" hidden="1">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4227,7 +4228,7 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" hidden="1">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4333,7 +4334,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" hidden="1">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4386,7 +4387,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" hidden="1">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4439,7 +4440,7 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" hidden="1">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4545,7 +4546,7 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" hidden="1">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4598,7 +4599,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" hidden="1">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4651,7 +4652,7 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" hidden="1">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4757,7 +4758,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" hidden="1">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4810,7 +4811,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" hidden="1">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4863,7 +4864,7 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" hidden="1">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4969,7 +4970,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" hidden="1">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5022,7 +5023,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" hidden="1">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5075,7 +5076,7 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" hidden="1">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5181,7 +5182,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" hidden="1">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5234,7 +5235,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" hidden="1">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5287,7 +5288,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" hidden="1">
       <c r="A67" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5393,7 +5394,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" hidden="1">
       <c r="A69" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -5446,7 +5447,7 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" hidden="1">
       <c r="A70" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -5499,7 +5500,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" hidden="1">
       <c r="A71" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5605,7 +5606,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" hidden="1">
       <c r="A73" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -5658,7 +5659,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" hidden="1">
       <c r="A74" s="3">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -5711,7 +5712,7 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" hidden="1">
       <c r="A75" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -5817,7 +5818,7 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" hidden="1">
       <c r="A77" s="3">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -5848,7 +5849,7 @@
       <c r="W77" s="4"/>
       <c r="X77" s="5"/>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" hidden="1">
       <c r="A78" s="3">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -5877,7 +5878,7 @@
       <c r="W78" s="4"/>
       <c r="X78" s="5"/>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" hidden="1">
       <c r="A79" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -5906,7 +5907,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="5"/>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" hidden="1">
       <c r="A80" s="3">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -5935,7 +5936,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="5"/>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" hidden="1">
       <c r="A81" s="3">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -5964,7 +5965,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" hidden="1">
       <c r="A82" s="3">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -5993,7 +5994,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" hidden="1">
       <c r="A83" s="3">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -6022,7 +6023,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" hidden="1">
       <c r="A84" s="3">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -6051,7 +6052,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" hidden="1">
       <c r="A85" s="3">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -6080,7 +6081,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" hidden="1">
       <c r="A86" s="3">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -6109,7 +6110,7 @@
       <c r="W86" s="4"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" hidden="1">
       <c r="A87" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -6138,7 +6139,7 @@
       <c r="W87" s="4"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" hidden="1">
       <c r="A88" s="3">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -6167,7 +6168,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" hidden="1">
       <c r="A89" s="3">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -6301,6 +6302,19 @@
       <c r="X93" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="F7:H89">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="24">
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A6:A7"/>

--- a/trunk/Plan/Plan.xlsx
+++ b/trunk/Plan/Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20520" windowHeight="8205"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Phase!$F$7:$H$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Phase!$A$1:$X$93</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -680,6 +680,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,9 +722,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,33 +742,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,8 +1039,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1050,14 +1050,17 @@
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="15" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
     <col min="18" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
     <col min="23" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1067,101 +1070,101 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="18" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="24"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="33"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="21" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="21" t="s">
+      <c r="N3" s="30"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="26"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="35"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="22" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="22" t="s">
+      <c r="N4" s="31"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="28"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="37"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:24">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1176,19 +1179,19 @@
       <c r="E6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="35" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="19" t="s">
         <v>16</v>
       </c>
@@ -1202,14 +1205,14 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
-      <c r="X6" s="20"/>
+      <c r="X6" s="29"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" hidden="1">
+    <row r="9" spans="1:24">
       <c r="A9" s="3">
         <f t="shared" ref="A9:A89" si="0">ROW()-7</f>
         <v>2</v>
@@ -1415,14 +1418,14 @@
         <v>0</v>
       </c>
       <c r="W9" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X9" s="4">
         <f>IF(F9="x", W9*References!$C$3, 0) + IF(G9="x", W9*References!$C$4, 0) + IF(H9="x", W9*References!$C$4, 0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" hidden="1">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1576,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1">
+    <row r="12" spans="1:24">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1653,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" hidden="1">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1730,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" hidden="1">
+    <row r="14" spans="1:24">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1800,11 +1803,11 @@
         <v>0</v>
       </c>
       <c r="W14" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X14" s="4">
         <f>IF(F14="x", W14*References!$C$3, 0) + IF(G14="x", W14*References!$C$4, 0) + IF(H14="x", W14*References!$C$4, 0)</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="15" spans="1:24" hidden="1">
@@ -1884,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" hidden="1">
+    <row r="16" spans="1:24">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1958,14 +1961,14 @@
         <v>0</v>
       </c>
       <c r="W16" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X16" s="4">
         <f>IF(F16="x", W16*References!$C$3, 0) + IF(G16="x", W16*References!$C$4, 0) + IF(H16="x", W16*References!$C$4, 0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2039,14 +2042,14 @@
         <v>0</v>
       </c>
       <c r="W17" s="4">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X17" s="4">
         <f>IF(F17="x", W17*References!$C$3, 0) + IF(G17="x", W17*References!$C$4, 0) + IF(H17="x", W17*References!$C$4, 0)</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2120,14 +2123,14 @@
         <v>0</v>
       </c>
       <c r="W18" s="4">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="X18" s="4">
         <f>IF(F18="x", W18*References!$C$3, 0) + IF(G18="x", W18*References!$C$4, 0) + IF(H18="x", W18*References!$C$4, 0)</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2201,14 +2204,14 @@
         <v>1</v>
       </c>
       <c r="W19" s="4">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="X19" s="4">
         <f>IF(F19="x", W19*References!$C$3, 0) + IF(G19="x", W19*References!$C$4, 0) + IF(H19="x", W19*References!$C$4, 0)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" hidden="1">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2282,14 +2285,14 @@
         <v>0</v>
       </c>
       <c r="W20" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X20" s="4">
         <f>IF(F20="x", W20*References!$C$3, 0) + IF(G20="x", W20*References!$C$4, 0) + IF(H20="x", W20*References!$C$4, 0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2363,14 +2366,14 @@
         <v>0</v>
       </c>
       <c r="W21" s="4">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="X21" s="4">
         <f>IF(F21="x", W21*References!$C$3, 0) + IF(G21="x", W21*References!$C$4, 0) + IF(H21="x", W21*References!$C$4, 0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" hidden="1">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2444,14 +2447,14 @@
         <v>1</v>
       </c>
       <c r="W22" s="4">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="X22" s="4">
         <f>IF(F22="x", W22*References!$C$3, 0) + IF(G22="x", W22*References!$C$4, 0) + IF(H22="x", W22*References!$C$4, 0)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" hidden="1">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2525,11 +2528,11 @@
         <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X23" s="4">
         <f>IF(F23="x", W23*References!$C$3, 0) + IF(G23="x", W23*References!$C$4, 0) + IF(H23="x", W23*References!$C$4, 0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:24" hidden="1">
@@ -2609,7 +2612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:24" hidden="1">
+    <row r="25" spans="1:24">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2679,14 +2682,14 @@
         <v>2</v>
       </c>
       <c r="W25" s="4">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="X25" s="4">
         <f>IF(F25="x", W25*References!$C$3, 0) + IF(G25="x", W25*References!$C$4, 0) + IF(H25="x", W25*References!$C$4, 0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" hidden="1">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2756,14 +2759,14 @@
         <v>1</v>
       </c>
       <c r="W26" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X26" s="4">
         <f>IF(F26="x", W26*References!$C$3, 0) + IF(G26="x", W26*References!$C$4, 0) + IF(H26="x", W26*References!$C$4, 0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" hidden="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2837,14 +2840,14 @@
         <v>4</v>
       </c>
       <c r="W27" s="4">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="X27" s="4">
         <f>IF(F27="x", W27*References!$C$3, 0) + IF(G27="x", W27*References!$C$4, 0) + IF(H27="x", W27*References!$C$4, 0)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" hidden="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2918,14 +2921,14 @@
         <v>2</v>
       </c>
       <c r="W28" s="4">
-        <v>16</v>
+        <v>22.5</v>
       </c>
       <c r="X28" s="4">
         <f>IF(F28="x", W28*References!$C$3, 0) + IF(G28="x", W28*References!$C$4, 0) + IF(H28="x", W28*References!$C$4, 0)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" hidden="1">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2997,14 +3000,14 @@
         <v>2</v>
       </c>
       <c r="W29" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="X29" s="4">
         <f>IF(F29="x", W29*References!$C$3, 0) + IF(G29="x", W29*References!$C$4, 0) + IF(H29="x", W29*References!$C$4, 0)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" hidden="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3074,14 +3077,14 @@
         <v>0</v>
       </c>
       <c r="W30" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X30" s="4">
         <f>IF(F30="x", W30*References!$C$3, 0) + IF(G30="x", W30*References!$C$4, 0) + IF(H30="x", W30*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" hidden="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3151,14 +3154,14 @@
         <v>0</v>
       </c>
       <c r="W31" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X31" s="4">
         <f>IF(F31="x", W31*References!$C$3, 0) + IF(G31="x", W31*References!$C$4, 0) + IF(H31="x", W31*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" hidden="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3228,14 +3231,14 @@
         <v>1</v>
       </c>
       <c r="W32" s="4">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="X32" s="4">
         <f>IF(F32="x", W32*References!$C$3, 0) + IF(G32="x", W32*References!$C$4, 0) + IF(H32="x", W32*References!$C$4, 0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" hidden="1">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3305,14 +3308,14 @@
         <v>6</v>
       </c>
       <c r="W33" s="4">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="X33" s="4">
         <f>IF(F33="x", W33*References!$C$3, 0) + IF(G33="x", W33*References!$C$4, 0) + IF(H33="x", W33*References!$C$4, 0)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" hidden="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3382,14 +3385,14 @@
         <v>4</v>
       </c>
       <c r="W34" s="4">
-        <v>16</v>
+        <v>9.5</v>
       </c>
       <c r="X34" s="4">
         <f>IF(F34="x", W34*References!$C$3, 0) + IF(G34="x", W34*References!$C$4, 0) + IF(H34="x", W34*References!$C$4, 0)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" hidden="1">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3466,7 +3469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" hidden="1">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3619,7 +3622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:24" hidden="1">
+    <row r="38" spans="1:24">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3773,7 +3776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" hidden="1">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3927,7 +3930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:24" hidden="1">
+    <row r="42" spans="1:24">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4069,7 +4072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" hidden="1">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4175,7 +4178,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="1:24" hidden="1">
+    <row r="46" spans="1:24">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4281,7 +4284,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" hidden="1">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4387,7 +4390,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="1:24" hidden="1">
+    <row r="50" spans="1:24">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4493,7 +4496,7 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" hidden="1">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4599,7 +4602,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54" spans="1:24" hidden="1">
+    <row r="54" spans="1:24">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4705,7 +4708,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" hidden="1">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4811,7 +4814,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
     </row>
-    <row r="58" spans="1:24" hidden="1">
+    <row r="58" spans="1:24">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4917,7 +4920,7 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" hidden="1">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5023,7 +5026,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
-    <row r="62" spans="1:24" hidden="1">
+    <row r="62" spans="1:24">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5129,7 +5132,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" hidden="1">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5235,7 +5238,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
     </row>
-    <row r="66" spans="1:24" hidden="1">
+    <row r="66" spans="1:24">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5341,7 +5344,7 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" hidden="1">
       <c r="A68" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5447,7 +5450,7 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
     </row>
-    <row r="70" spans="1:24" hidden="1">
+    <row r="70" spans="1:24">
       <c r="A70" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -5553,7 +5556,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" hidden="1">
       <c r="A72" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5659,7 +5662,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
     </row>
-    <row r="74" spans="1:24" hidden="1">
+    <row r="74" spans="1:24">
       <c r="A74" s="3">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -5765,7 +5768,7 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" hidden="1">
       <c r="A76" s="3">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -6303,27 +6306,15 @@
     </row>
   </sheetData>
   <autoFilter ref="F7:H89">
-    <filterColumn colId="0">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="0"/>
     <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
+    <filterColumn colId="2"/>
   </autoFilter>
   <mergeCells count="24">
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="F6:I6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="M2:N2"/>
@@ -6340,6 +6331,14 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="O4:R4"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/Plan/Plan.xlsx
+++ b/trunk/Plan/Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20520" windowHeight="8205"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Phase!$F$7:$H$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Phase!$A$1:$X$93</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -680,36 +680,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -722,6 +692,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -742,6 +715,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,11 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G15" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,7 +1054,7 @@
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
     <col min="18" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -1070,101 +1069,101 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="28" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="28" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="33"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="30" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="30" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="35"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="31" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="31" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="37"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="28"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:24">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1179,19 +1178,19 @@
       <c r="E6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="21" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
       <c r="O6" s="19" t="s">
         <v>16</v>
       </c>
@@ -1205,14 +1204,14 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
-      <c r="X6" s="29"/>
+      <c r="X6" s="20"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:24" hidden="1">
+    <row r="8" spans="1:24">
       <c r="A8" s="3">
         <f>ROW()-7</f>
         <v>1</v>
@@ -1425,7 +1424,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:24" hidden="1">
+    <row r="10" spans="1:24">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1502,7 +1501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1">
+    <row r="11" spans="1:24">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1656,7 +1655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" hidden="1">
+    <row r="13" spans="1:24">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1810,7 +1809,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="15" spans="1:24" hidden="1">
+    <row r="15" spans="1:24">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2535,7 +2534,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:24" hidden="1">
+    <row r="24" spans="1:24">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3392,7 +3391,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="35" spans="1:24" hidden="1">
+    <row r="35" spans="1:24">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3469,7 +3468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:24" hidden="1">
+    <row r="36" spans="1:24">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3545,7 +3544,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="37" spans="1:24" hidden="1">
+    <row r="37" spans="1:24">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3699,7 +3698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:24" hidden="1">
+    <row r="39" spans="1:24">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3776,7 +3775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:24" hidden="1">
+    <row r="40" spans="1:24">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3853,7 +3852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:24" hidden="1">
+    <row r="41" spans="1:24">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3995,7 +3994,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="1:24" hidden="1">
+    <row r="43" spans="1:24">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4072,7 +4071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" hidden="1">
+    <row r="44" spans="1:24">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4125,7 +4124,7 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="45" spans="1:24" hidden="1">
+    <row r="45" spans="1:24">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4231,7 +4230,7 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
     </row>
-    <row r="47" spans="1:24" hidden="1">
+    <row r="47" spans="1:24">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4284,7 +4283,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
     </row>
-    <row r="48" spans="1:24" hidden="1">
+    <row r="48" spans="1:24">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4337,7 +4336,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="1:24" hidden="1">
+    <row r="49" spans="1:24">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4443,7 +4442,7 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
     </row>
-    <row r="51" spans="1:24" hidden="1">
+    <row r="51" spans="1:24">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4496,7 +4495,7 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
     </row>
-    <row r="52" spans="1:24" hidden="1">
+    <row r="52" spans="1:24">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4549,7 +4548,7 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
     </row>
-    <row r="53" spans="1:24" hidden="1">
+    <row r="53" spans="1:24">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4655,7 +4654,7 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
     </row>
-    <row r="55" spans="1:24" hidden="1">
+    <row r="55" spans="1:24">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4708,7 +4707,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
     </row>
-    <row r="56" spans="1:24" hidden="1">
+    <row r="56" spans="1:24">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4761,7 +4760,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57" spans="1:24" hidden="1">
+    <row r="57" spans="1:24">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4867,7 +4866,7 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
     </row>
-    <row r="59" spans="1:24" hidden="1">
+    <row r="59" spans="1:24">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4920,7 +4919,7 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
     </row>
-    <row r="60" spans="1:24" hidden="1">
+    <row r="60" spans="1:24">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4973,7 +4972,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
-    <row r="61" spans="1:24" hidden="1">
+    <row r="61" spans="1:24">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5079,7 +5078,7 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
     </row>
-    <row r="63" spans="1:24" hidden="1">
+    <row r="63" spans="1:24">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5132,7 +5131,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
     </row>
-    <row r="64" spans="1:24" hidden="1">
+    <row r="64" spans="1:24">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5185,7 +5184,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="1:24" hidden="1">
+    <row r="65" spans="1:24">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5291,7 +5290,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
     </row>
-    <row r="67" spans="1:24" hidden="1">
+    <row r="67" spans="1:24">
       <c r="A67" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5344,7 +5343,7 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
     </row>
-    <row r="68" spans="1:24" hidden="1">
+    <row r="68" spans="1:24">
       <c r="A68" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5397,7 +5396,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
     </row>
-    <row r="69" spans="1:24" hidden="1">
+    <row r="69" spans="1:24">
       <c r="A69" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -5503,7 +5502,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
     </row>
-    <row r="71" spans="1:24" hidden="1">
+    <row r="71" spans="1:24">
       <c r="A71" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5556,7 +5555,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
     </row>
-    <row r="72" spans="1:24" hidden="1">
+    <row r="72" spans="1:24">
       <c r="A72" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5609,7 +5608,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
     </row>
-    <row r="73" spans="1:24" hidden="1">
+    <row r="73" spans="1:24">
       <c r="A73" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -5715,7 +5714,7 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
     </row>
-    <row r="75" spans="1:24" hidden="1">
+    <row r="75" spans="1:24">
       <c r="A75" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -5768,7 +5767,7 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
     </row>
-    <row r="76" spans="1:24" hidden="1">
+    <row r="76" spans="1:24">
       <c r="A76" s="3">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -5821,7 +5820,7 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
     </row>
-    <row r="77" spans="1:24" hidden="1">
+    <row r="77" spans="1:24">
       <c r="A77" s="3">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -5852,7 +5851,7 @@
       <c r="W77" s="4"/>
       <c r="X77" s="5"/>
     </row>
-    <row r="78" spans="1:24" hidden="1">
+    <row r="78" spans="1:24">
       <c r="A78" s="3">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -5881,7 +5880,7 @@
       <c r="W78" s="4"/>
       <c r="X78" s="5"/>
     </row>
-    <row r="79" spans="1:24" hidden="1">
+    <row r="79" spans="1:24">
       <c r="A79" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -5910,7 +5909,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="5"/>
     </row>
-    <row r="80" spans="1:24" hidden="1">
+    <row r="80" spans="1:24">
       <c r="A80" s="3">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -5939,7 +5938,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="5"/>
     </row>
-    <row r="81" spans="1:24" hidden="1">
+    <row r="81" spans="1:24">
       <c r="A81" s="3">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -5968,7 +5967,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="1:24" hidden="1">
+    <row r="82" spans="1:24">
       <c r="A82" s="3">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -5997,7 +5996,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="1:24" hidden="1">
+    <row r="83" spans="1:24">
       <c r="A83" s="3">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -6026,7 +6025,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="1:24" hidden="1">
+    <row r="84" spans="1:24">
       <c r="A84" s="3">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -6055,7 +6054,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="1:24" hidden="1">
+    <row r="85" spans="1:24">
       <c r="A85" s="3">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -6084,7 +6083,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="1:24" hidden="1">
+    <row r="86" spans="1:24">
       <c r="A86" s="3">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -6113,7 +6112,7 @@
       <c r="W86" s="4"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="1:24" hidden="1">
+    <row r="87" spans="1:24">
       <c r="A87" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -6142,7 +6141,7 @@
       <c r="W87" s="4"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="1:24" hidden="1">
+    <row r="88" spans="1:24">
       <c r="A88" s="3">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -6171,7 +6170,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="89" spans="1:24" hidden="1">
+    <row r="89" spans="1:24">
       <c r="A89" s="3">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -6305,16 +6304,15 @@
       <c r="X93" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="F7:H89">
-    <filterColumn colId="0"/>
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="2"/>
-  </autoFilter>
   <mergeCells count="24">
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="M2:N2"/>
@@ -6331,14 +6329,6 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
